--- a/EAN_Price/input.xlsx
+++ b/EAN_Price/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangji/Desktop/EAN_Price/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangji/Desktop/python_work/EAN_Price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD5FAD-D089-214C-9982-3529D7EE941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75D0CD1-AB51-8540-86F2-6B0F4E69BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{50784239-42CA-8441-AFD1-0F844319F588}"/>
   </bookViews>
@@ -396,26 +396,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0210C97C-EA95-A943-8D12-337C87842F66}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>3145891074505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3145891074604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3145891073508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3145891073607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3145891263107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3145891364101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8011003993802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8011003993819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8011003993826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>8011003995943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>8011003995950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>8011003995967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3346131101375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>3346138900094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>3346138900087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3346130009610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3346130009603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>783320403194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>783320413711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>783320413681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>783320402555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>783320831508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>783320831102</v>
       </c>
     </row>
   </sheetData>
